--- a/testData/merged_data.xlsx
+++ b/testData/merged_data.xlsx
@@ -2435,7 +2435,7 @@
     <t>Past hx of cancer</t>
   </si>
   <si>
-    <t>Hx of  DVT</t>
+    <t>Hx of DVT</t>
   </si>
   <si>
     <t>Hx of stroke</t>
